--- a/Datasets/true_variance.xlsx
+++ b/Datasets/true_variance.xlsx
@@ -404,7 +404,7 @@
         <v>925</v>
       </c>
       <c r="D2">
-        <v>-.07396088019559902</v>
+        <v>.11616793000998321</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -418,10 +418,10 @@
         <v>922</v>
       </c>
       <c r="D3">
-        <v>-.04895960832313342</v>
+        <v>.12902890534525663</v>
       </c>
       <c r="E3">
-        <v>.028672680412371133</v>
+        <v>.0918808413154958</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -435,10 +435,10 @@
         <v>922</v>
       </c>
       <c r="D4">
-        <v>-.04253365973072215</v>
+        <v>.13413030027461126</v>
       </c>
       <c r="E4">
-        <v>.0006321112515802782</v>
+        <v>.0810678684505363</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -452,10 +452,10 @@
         <v>921</v>
       </c>
       <c r="D5">
-        <v>-.041970802919708027</v>
+        <v>.12506326922052322</v>
       </c>
       <c r="E5">
-        <v>.00319693094629156</v>
+        <v>.08422891006730726</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,10 +469,10 @@
         <v>921</v>
       </c>
       <c r="D6">
-        <v>-.05012376237623763</v>
+        <v>.14058785597000295</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>.09475546975546975</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -486,10 +486,10 @@
         <v>912</v>
       </c>
       <c r="D7">
-        <v>-.06419753086419754</v>
+        <v>.13368731900624906</v>
       </c>
       <c r="E7">
-        <v>-.017719072164948453</v>
+        <v>.08046889530635562</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>910</v>
       </c>
       <c r="D8">
-        <v>-.03740157480314961</v>
+        <v>.1486995473990948</v>
       </c>
       <c r="E8">
-        <v>.0252387448840382</v>
+        <v>.07644349688901131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -520,10 +520,10 @@
         <v>897</v>
       </c>
       <c r="D9">
-        <v>-.023485784919653894</v>
+        <v>.12877474670769662</v>
       </c>
       <c r="E9">
-        <v>.00859697386519945</v>
+        <v>.09268744004586314</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,10 +537,10 @@
         <v>888</v>
       </c>
       <c r="D10">
-        <v>-.020161290322580645</v>
+        <v>.14421200872488593</v>
       </c>
       <c r="E10">
-        <v>.0042098445595854924</v>
+        <v>.08377437565437998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,10 +554,10 @@
         <v>875</v>
       </c>
       <c r="D11">
-        <v>-.026729559748427674</v>
+        <v>.14307483881175587</v>
       </c>
       <c r="E11">
-        <v>-.008766233766233766</v>
+        <v>.0925367895091921</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>871</v>
       </c>
       <c r="D12">
-        <v>-.06157178217821782</v>
+        <v>.12608205920375454</v>
       </c>
       <c r="E12">
-        <v>-.03961038961038961</v>
+        <v>.08706738067127677</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,10 +588,10 @@
         <v>868</v>
       </c>
       <c r="D13">
-        <v>-.05576441102756892</v>
+        <v>.1234567465028486</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>.08806451612903225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,10 +605,10 @@
         <v>864</v>
       </c>
       <c r="D14">
-        <v>-.04505632040050062</v>
+        <v>.125160165789214</v>
       </c>
       <c r="E14">
-        <v>.012761780104712041</v>
+        <v>.07845297466489405</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,10 +622,10 @@
         <v>863</v>
       </c>
       <c r="D15">
-        <v>-.007614213197969543</v>
+        <v>.13096994253910174</v>
       </c>
       <c r="E15">
-        <v>.04183006535947712</v>
+        <v>.09530906916143364</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,10 +639,10 @@
         <v>863</v>
       </c>
       <c r="D16">
-        <v>.001556662515566625</v>
+        <v>.1406420350832572</v>
       </c>
       <c r="E16">
-        <v>.004527813712807244</v>
+        <v>.08018648467271045</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>862</v>
       </c>
       <c r="D17">
-        <v>.02386934673366834</v>
+        <v>.12945537991464862</v>
       </c>
       <c r="E17">
-        <v>.025096525096525095</v>
+        <v>.08366874872666379</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,10 +673,10 @@
         <v>861</v>
       </c>
       <c r="D18">
-        <v>-.0019157088122605363</v>
+        <v>.12802953567915915</v>
       </c>
       <c r="E18">
-        <v>-.023232984293193717</v>
+        <v>.07660355304816206</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>857</v>
       </c>
       <c r="D19">
-        <v>.008207070707070708</v>
+        <v>.12998314904091418</v>
       </c>
       <c r="E19">
-        <v>.003618421052631579</v>
+        <v>.07490467018698062</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>856</v>
       </c>
       <c r="D20">
-        <v>.020103761348897537</v>
+        <v>.12281244059545018</v>
       </c>
       <c r="E20">
-        <v>.008976063829787235</v>
+        <v>.07181105261854911</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
         <v>847</v>
       </c>
       <c r="D21">
-        <v>.003585397653194263</v>
+        <v>.11480135613618477</v>
       </c>
       <c r="E21">
-        <v>-.013907734056987787</v>
+        <v>.07723194806772846</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,10 +741,10 @@
         <v>848</v>
       </c>
       <c r="D22">
-        <v>-.007381258023106547</v>
+        <v>.11700264154860993</v>
       </c>
       <c r="E22">
-        <v>-.00738255033557047</v>
+        <v>.08350254493040854</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,10 +758,10 @@
         <v>845</v>
       </c>
       <c r="D23">
-        <v>-.03014416775884666</v>
+        <v>.12654873413046727</v>
       </c>
       <c r="E23">
-        <v>-.02334235453315291</v>
+        <v>.08986447142666186</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,10 +775,10 @@
         <v>871</v>
       </c>
       <c r="D24">
-        <v>-.03080872913992298</v>
+        <v>.1198788068044183</v>
       </c>
       <c r="E24">
-        <v>.0006738544474393531</v>
+        <v>.07867205265872813</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,10 +792,10 @@
         <v>919</v>
       </c>
       <c r="D25">
-        <v>-.023881499395405077</v>
+        <v>.11513402707006137</v>
       </c>
       <c r="E25">
-        <v>-.003289473684210526</v>
+        <v>.07877207409972299</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,10 +809,10 @@
         <v>944</v>
       </c>
       <c r="D26">
-        <v>.006707317073170732</v>
+        <v>.10818671921475313</v>
       </c>
       <c r="E26">
-        <v>.0265748031496063</v>
+        <v>.07155427852522372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
         <v>975</v>
       </c>
       <c r="D27">
-        <v>.007670454545454545</v>
+        <v>.11648945958161157</v>
       </c>
       <c r="E27">
-        <v>.0003168567807351077</v>
+        <v>.07739216829633057</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,10 +843,10 @@
         <v>1003</v>
       </c>
       <c r="D28">
-        <v>.0030521642619311877</v>
+        <v>.11937192735658124</v>
       </c>
       <c r="E28">
-        <v>-.00650887573964497</v>
+        <v>.09285704282062954</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,10 +860,10 @@
         <v>1015</v>
       </c>
       <c r="D29">
-        <v>.0030589543937708566</v>
+        <v>.12325260052882883</v>
       </c>
       <c r="E29">
-        <v>-.002056404230317274</v>
+        <v>.08893525416286362</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>1013</v>
       </c>
       <c r="D30">
-        <v>-.02557755775577558</v>
+        <v>.1286774717075668</v>
       </c>
       <c r="E30">
-        <v>-.026869158878504672</v>
+        <v>.0876250109179841</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>1013</v>
       </c>
       <c r="D31">
-        <v>-.028602860286028604</v>
+        <v>.13257021521734133</v>
       </c>
       <c r="E31">
-        <v>.0014400921658986176</v>
+        <v>.08229919341565971</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,10 +911,10 @@
         <v>1011</v>
       </c>
       <c r="D32">
-        <v>-.03983050847457627</v>
+        <v>.11924686392799004</v>
       </c>
       <c r="E32">
-        <v>-.015569917743830788</v>
+        <v>.07400845897754905</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,10 +928,10 @@
         <v>1011</v>
       </c>
       <c r="D33">
-        <v>-.025191675794085433</v>
+        <v>.11081116260321582</v>
       </c>
       <c r="E33">
-        <v>.008792497069167644</v>
+        <v>.07099537663772713</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,10 +945,10 @@
         <v>1011</v>
       </c>
       <c r="D34">
-        <v>-.06292517006802721</v>
+        <v>.12500867694016382</v>
       </c>
       <c r="E34">
-        <v>-.029342723004694836</v>
+        <v>.07704393418413454</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>1010</v>
       </c>
       <c r="D35">
-        <v>-.07900552486187845</v>
+        <v>.13823326516284606</v>
       </c>
       <c r="E35">
-        <v>-.01645123384253819</v>
+        <v>.08330750026581019</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>1006</v>
       </c>
       <c r="D36">
-        <v>-.10960044395116537</v>
+        <v>.13872303680335452</v>
       </c>
       <c r="E36">
-        <v>-.029582366589327145</v>
+        <v>.09758776061713707</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>997</v>
       </c>
       <c r="D37">
-        <v>-.1188063063063063</v>
+        <v>.1352375390593296</v>
       </c>
       <c r="E37">
-        <v>-.01432748538011696</v>
+        <v>.07881519099893984</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>978</v>
       </c>
       <c r="D38">
-        <v>-.12913340935005702</v>
+        <v>.13162843944253824</v>
       </c>
       <c r="E38">
-        <v>-.0059594755661501785</v>
+        <v>.0780336145675438</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,10 +1030,10 @@
         <v>973</v>
       </c>
       <c r="D39">
-        <v>-.16620727673649394</v>
+        <v>.15146830543767756</v>
       </c>
       <c r="E39">
-        <v>-.039627039627039624</v>
+        <v>.10463599143669075</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,10 +1047,10 @@
         <v>968</v>
       </c>
       <c r="D40">
-        <v>-.14720394736842105</v>
+        <v>.13410128296687443</v>
       </c>
       <c r="E40">
-        <v>.019876819708846586</v>
+        <v>.09891902178070322</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>971</v>
       </c>
       <c r="D41">
-        <v>-.10851648351648352</v>
+        <v>.13595768928873325</v>
       </c>
       <c r="E41">
-        <v>.035955056179775284</v>
+        <v>.10348251483398561</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>996</v>
       </c>
       <c r="D42">
-        <v>-.13152053274139844</v>
+        <v>.15806305978928334</v>
       </c>
       <c r="E42">
-        <v>-.026724137931034484</v>
+        <v>.10496110780816488</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,10 +1098,10 @@
         <v>1020</v>
       </c>
       <c r="D43">
-        <v>-.13463626492942454</v>
+        <v>.14650391221362796</v>
       </c>
       <c r="E43">
-        <v>.0005747126436781609</v>
+        <v>.11709737085480248</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>1060</v>
       </c>
       <c r="D44">
-        <v>-.12246531483457844</v>
+        <v>.13488218262831603</v>
       </c>
       <c r="E44">
-        <v>.009248878923766817</v>
+        <v>.097518157790223</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>1056</v>
       </c>
       <c r="D45">
-        <v>-.09553283100107643</v>
+        <v>.13235625538068296</v>
       </c>
       <c r="E45">
-        <v>.0275</v>
+        <v>.07959097222222224</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,10 +1149,10 @@
         <v>1064</v>
       </c>
       <c r="D46">
-        <v>-.10523504273504274</v>
+        <v>.1370292182591862</v>
       </c>
       <c r="E46">
-        <v>-.012555803571428572</v>
+        <v>.09701032054667569</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>1072</v>
       </c>
       <c r="D47">
-        <v>-.1478835978835979</v>
+        <v>.15914895999552087</v>
       </c>
       <c r="E47">
-        <v>-.041758849557522126</v>
+        <v>.10438175158097739</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>1067</v>
       </c>
       <c r="D48">
-        <v>-.17074468085106384</v>
+        <v>.149835615663196</v>
       </c>
       <c r="E48">
-        <v>-.02445054945054945</v>
+        <v>.09809722557662116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,10 +1200,10 @@
         <v>1063</v>
       </c>
       <c r="D49">
-        <v>-.1705032119914347</v>
+        <v>.1464506033087409</v>
       </c>
       <c r="E49">
-        <v>.0030521642619311877</v>
+        <v>.09426093956523827</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,10 +1217,10 @@
         <v>1062</v>
       </c>
       <c r="D50">
-        <v>-.17417815482502652</v>
+        <v>.13210894811239596</v>
       </c>
       <c r="E50">
-        <v>-.004405286343612335</v>
+        <v>.09620856702051273</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,10 +1234,10 @@
         <v>1092</v>
       </c>
       <c r="D51">
-        <v>-.1342931937172775</v>
+        <v>.1338632438803761</v>
       </c>
       <c r="E51">
-        <v>.031420765027322405</v>
+        <v>.09771492131744752</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>1072</v>
       </c>
       <c r="D52">
-        <v>-.15380658436213993</v>
+        <v>.13735176505952684</v>
       </c>
       <c r="E52">
-        <v>-.015758547008547008</v>
+        <v>.0902297664867777</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>1069</v>
       </c>
       <c r="D53">
-        <v>-.18921052631578947</v>
+        <v>.137028324099723</v>
       </c>
       <c r="E53">
-        <v>-.03441835645677695</v>
+        <v>.09333245251256024</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
         <v>1061</v>
       </c>
       <c r="D54">
-        <v>-.20221752903907075</v>
+        <v>.14627808150899466</v>
       </c>
       <c r="E54">
-        <v>-.011487964989059081</v>
+        <v>.10380675751380183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>1054</v>
       </c>
       <c r="D55">
-        <v>-.20302375809935205</v>
+        <v>.13737206639019633</v>
       </c>
       <c r="E55">
-        <v>-.0019444444444444444</v>
+        <v>.09367677469135802</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
         <v>1051</v>
       </c>
       <c r="D56">
-        <v>-.19133476856835308</v>
+        <v>.12990069417327796</v>
       </c>
       <c r="E56">
-        <v>.010893854748603353</v>
+        <v>.07872210605162137</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,10 +1336,10 @@
         <v>1039</v>
       </c>
       <c r="D57">
-        <v>-.17256162915326903</v>
+        <v>.1351474573486856</v>
       </c>
       <c r="E57">
-        <v>.013687150837988826</v>
+        <v>.08396070659467558</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,10 +1353,10 @@
         <v>1031</v>
       </c>
       <c r="D58">
-        <v>-.21931216931216932</v>
+        <v>.1371534951429131</v>
       </c>
       <c r="E58">
-        <v>-.043502202643171804</v>
+        <v>.09805249228589727</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,10 +1370,10 @@
         <v>1033</v>
       </c>
       <c r="D59">
-        <v>-.2611111111111111</v>
+        <v>.14260141093474427</v>
       </c>
       <c r="E59">
-        <v>-.04634678298800436</v>
+        <v>.08877345880371847</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,10 +1387,10 @@
         <v>1027</v>
       </c>
       <c r="D60">
-        <v>-.2938034188034188</v>
+        <v>.13990818357805535</v>
       </c>
       <c r="E60">
-        <v>-.026619099890230515</v>
+        <v>.08648955743980452</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>1019</v>
       </c>
       <c r="D61">
-        <v>-.33206933911159264</v>
+        <v>.131062565072911</v>
       </c>
       <c r="E61">
-        <v>-.03511705685618729</v>
+        <v>.08488719365555195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1421,10 +1421,10 @@
         <v>1040</v>
       </c>
       <c r="D62">
-        <v>-.3216970998925886</v>
+        <v>.12986221115163235</v>
       </c>
       <c r="E62">
-        <v>.002254791431792559</v>
+        <v>.0797581628152609</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1438,10 +1438,10 @@
         <v>1048</v>
       </c>
       <c r="D63">
-        <v>-.30136268343815514</v>
+        <v>.14738808020076563</v>
       </c>
       <c r="E63">
-        <v>.025082690187431093</v>
+        <v>.09494693362539795</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,10 +1455,10 @@
         <v>1189</v>
       </c>
       <c r="D64">
-        <v>-.28606719367588934</v>
+        <v>.13963295200674905</v>
       </c>
       <c r="E64">
-        <v>.004828326180257511</v>
+        <v>.09064192331779919</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,10 +1472,10 @@
         <v>1281</v>
       </c>
       <c r="D65">
-        <v>-.26820728291316526</v>
+        <v>.14019137066591342</v>
       </c>
       <c r="E65">
-        <v>.006423432682425488</v>
+        <v>.09932924310969665</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1489,10 +1489,10 @@
         <v>1283</v>
       </c>
       <c r="D66">
-        <v>-.27547339945897203</v>
+        <v>.14131458653316864</v>
       </c>
       <c r="E66">
-        <v>-.014649375600384247</v>
+        <v>.0945860682248743</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,10 +1506,10 @@
         <v>1301</v>
       </c>
       <c r="D67">
-        <v>-.30473637176050045</v>
+        <v>.1346826606163265</v>
       </c>
       <c r="E67">
-        <v>-.023731203007518797</v>
+        <v>.08349463075569563</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
         <v>1413</v>
       </c>
       <c r="D68">
-        <v>-.2613831615120275</v>
+        <v>.14597222775770244</v>
       </c>
       <c r="E68">
-        <v>.029952830188679246</v>
+        <v>.0828882053221787</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,10 +1540,10 @@
         <v>1446</v>
       </c>
       <c r="D69">
-        <v>-.2121149042464613</v>
+        <v>.14979286273373354</v>
       </c>
       <c r="E69">
-        <v>.03847905282331512</v>
+        <v>.09511544628252727</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>1446</v>
       </c>
       <c r="D70">
-        <v>-.22058823529411764</v>
+        <v>.15225497989338818</v>
       </c>
       <c r="E70">
-        <v>-.021514629948364887</v>
+        <v>.09732111381350333</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1574,10 +1574,10 @@
         <v>1522</v>
       </c>
       <c r="D71">
-        <v>-.21902131018153118</v>
+        <v>.15299651651509477</v>
       </c>
       <c r="E71">
-        <v>-.0008312551953449709</v>
+        <v>.09559365647947186</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,10 +1591,10 @@
         <v>1539</v>
       </c>
       <c r="D72">
-        <v>-.2115234375</v>
+        <v>.13890041351318358</v>
       </c>
       <c r="E72">
-        <v>.0053586150041220115</v>
+        <v>.09529280214548493</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
         <v>1550</v>
       </c>
       <c r="D73">
-        <v>-.20431570762052878</v>
+        <v>.13968005273927375</v>
       </c>
       <c r="E73">
-        <v>.0059135399673735725</v>
+        <v>.08749561732074758</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1625,10 +1625,10 @@
         <v>1551</v>
       </c>
       <c r="D74">
-        <v>-.17276264591439688</v>
+        <v>.12725423549183182</v>
       </c>
       <c r="E74">
-        <v>.028321108394458026</v>
+        <v>.09164901506380813</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,10 +1642,10 @@
         <v>1692</v>
       </c>
       <c r="D75">
-        <v>-.1353194544149318</v>
+        <v>.13468577375648627</v>
       </c>
       <c r="E75">
-        <v>.028145695364238412</v>
+        <v>.10475417744835754</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,10 +1659,10 @@
         <v>1678</v>
       </c>
       <c r="D76">
-        <v>-.13956734124214934</v>
+        <v>.13055584909390797</v>
       </c>
       <c r="E76">
-        <v>-.01246279761904762</v>
+        <v>.10461588403264953</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,10 +1676,10 @@
         <v>1686</v>
       </c>
       <c r="D77">
-        <v>-.14238525730180807</v>
+        <v>.13675877508167927</v>
       </c>
       <c r="E77">
-        <v>-.002932551319648094</v>
+        <v>.09584917140375471</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,10 +1693,10 @@
         <v>1674</v>
       </c>
       <c r="D78">
-        <v>-.15342514124293785</v>
+        <v>.13964045767300265</v>
       </c>
       <c r="E78">
-        <v>-.01051660516605166</v>
+        <v>.09015692869105812</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,10 +1710,10 @@
         <v>1665</v>
       </c>
       <c r="D79">
-        <v>-.1304886685552408</v>
+        <v>.1428965742342046</v>
       </c>
       <c r="E79">
-        <v>.02783964365256125</v>
+        <v>.09285895572607941</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,10 +1727,10 @@
         <v>1661</v>
       </c>
       <c r="D80">
-        <v>-.10679970436067997</v>
+        <v>.14167955855127992</v>
       </c>
       <c r="E80">
-        <v>.022115384615384617</v>
+        <v>.093020525147929</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,10 +1744,10 @@
         <v>1641</v>
       </c>
       <c r="D81">
-        <v>-.08027185892725937</v>
+        <v>.1263172662837597</v>
       </c>
       <c r="E81">
-        <v>.025992063492063493</v>
+        <v>.08707242850844041</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,10 +1761,10 @@
         <v>1666</v>
       </c>
       <c r="D82">
-        <v>-.06581779053084648</v>
+        <v>.13882619635494609</v>
       </c>
       <c r="E82">
-        <v>.009094427244582043</v>
+        <v>.09236117684200941</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1778,10 +1778,10 @@
         <v>1673</v>
       </c>
       <c r="D83">
-        <v>-.0830311820159536</v>
+        <v>.13795716436488276</v>
       </c>
       <c r="E83">
-        <v>-.011895770392749245</v>
+        <v>.09658243324495029</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,10 +1795,10 @@
         <v>1651</v>
       </c>
       <c r="D84">
-        <v>-.1041970802919708</v>
+        <v>.13480902685278917</v>
       </c>
       <c r="E84">
-        <v>-.020030816640986132</v>
+        <v>.08925593125372447</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,10 +1812,10 @@
         <v>1599</v>
       </c>
       <c r="D85">
-        <v>-.10314306358381503</v>
+        <v>.13201866161373585</v>
       </c>
       <c r="E85">
-        <v>-.0007639419404125286</v>
+        <v>.09759299928041221</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1829,10 +1829,10 @@
         <v>1594</v>
       </c>
       <c r="D86">
-        <v>-.09011843079200592</v>
+        <v>.12266142194750058</v>
       </c>
       <c r="E86">
-        <v>.01423076923076923</v>
+        <v>.07787440828402367</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>1715</v>
       </c>
       <c r="D87">
-        <v>-.07892976588628763</v>
+        <v>.13131189807720273</v>
       </c>
       <c r="E87">
-        <v>-.0005738332058148432</v>
+        <v>.09195644194728052</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,10 +1863,10 @@
         <v>1720</v>
       </c>
       <c r="D88">
-        <v>-.10571142284569138</v>
+        <v>.1372469387673142</v>
       </c>
       <c r="E88">
-        <v>-.02789400278940028</v>
+        <v>.08813405849959832</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,10 +1880,10 @@
         <v>1715</v>
       </c>
       <c r="D89">
-        <v>-.13656313301823092</v>
+        <v>.14378298875561296</v>
       </c>
       <c r="E89">
-        <v>-.03153468815697267</v>
+        <v>.10447157605671777</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,10 +1897,10 @@
         <v>1701</v>
       </c>
       <c r="D90">
-        <v>-.16011424731182797</v>
+        <v>.14166013479701411</v>
       </c>
       <c r="E90">
-        <v>-.02335456475583864</v>
+        <v>.09499596557895067</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1914,10 +1914,10 @@
         <v>1720</v>
       </c>
       <c r="D91">
-        <v>-.14976415094339623</v>
+        <v>.1440548635126888</v>
       </c>
       <c r="E91">
-        <v>.013101983002832862</v>
+        <v>.09331275730484959</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1931,10 +1931,10 @@
         <v>1709</v>
       </c>
       <c r="D92">
-        <v>-.14503149055283415</v>
+        <v>.13978637059686852</v>
       </c>
       <c r="E92">
-        <v>.0030909090909090908</v>
+        <v>.08376317355371901</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -1948,10 +1948,10 @@
         <v>1708</v>
       </c>
       <c r="D93">
-        <v>-.11402606310013717</v>
+        <v>.1359606769613184</v>
       </c>
       <c r="E93">
-        <v>.02997779422649889</v>
+        <v>.09097771971415751</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,10 +1965,10 @@
         <v>1702</v>
       </c>
       <c r="D94">
-        <v>-.12607119314436388</v>
+        <v>.1388110641470932</v>
       </c>
       <c r="E94">
-        <v>-.009922041105598866</v>
+        <v>.09566696769987358</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -1982,10 +1982,10 @@
         <v>1690</v>
       </c>
       <c r="D95">
-        <v>-.16902834008097167</v>
+        <v>.14332550661924195</v>
       </c>
       <c r="E95">
-        <v>-.04030576789437109</v>
+        <v>.10999809969570985</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -1999,10 +1999,10 @@
         <v>1675</v>
       </c>
       <c r="D96">
-        <v>-.19505494505494506</v>
+        <v>.13812115082719478</v>
       </c>
       <c r="E96">
-        <v>-.026588151320485368</v>
+        <v>.09560820225789574</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,10 +2016,10 @@
         <v>1662</v>
       </c>
       <c r="D97">
-        <v>-.2056701030927835</v>
+        <v>.13446097707868354</v>
       </c>
       <c r="E97">
-        <v>-.01148600143575018</v>
+        <v>.07955220673153482</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2033,10 +2033,10 @@
         <v>1644</v>
       </c>
       <c r="D98">
-        <v>-.18807178043631245</v>
+        <v>.1318088083591805</v>
       </c>
       <c r="E98">
-        <v>.016896802325581394</v>
+        <v>.09187474516419349</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,10 +2050,10 @@
         <v>1627</v>
       </c>
       <c r="D99">
-        <v>-.19190509420795535</v>
+        <v>.1312638514255494</v>
       </c>
       <c r="E99">
-        <v>-.004751461988304093</v>
+        <v>.09107756980780411</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
         <v>1608</v>
       </c>
       <c r="D100">
-        <v>-.18314763231197773</v>
+        <v>.13889775257795953</v>
       </c>
       <c r="E100">
-        <v>.009097525473071324</v>
+        <v>.09152931654409506</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>1593</v>
       </c>
       <c r="D101">
-        <v>-.1872362869198312</v>
+        <v>.13692745331054498</v>
       </c>
       <c r="E101">
-        <v>-.003820960698689956</v>
+        <v>.09200687041945552</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,10 +2101,10 @@
         <v>1598</v>
       </c>
       <c r="D102">
-        <v>-.17249825052484255</v>
+        <v>.13714428358686237</v>
       </c>
       <c r="E102">
-        <v>.010286554004408524</v>
+        <v>.08687067468327574</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,10 +2118,10 @@
         <v>1602</v>
       </c>
       <c r="D103">
-        <v>-.17296819787985865</v>
+        <v>.13850073043738842</v>
       </c>
       <c r="E103">
-        <v>.000925925925925926</v>
+        <v>.08773062414266111</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
         <v>1600</v>
       </c>
       <c r="D104">
-        <v>-.14782453637660484</v>
+        <v>.12913756407699617</v>
       </c>
       <c r="E104">
-        <v>.018945022288261514</v>
+        <v>.09798804006809014</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,10 +2152,10 @@
         <v>1590</v>
       </c>
       <c r="D105">
-        <v>-.11551215917464996</v>
+        <v>.12542812752348828</v>
       </c>
       <c r="E105">
-        <v>.027885360185902403</v>
+        <v>.09556245316290281</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2169,10 +2169,10 @@
         <v>1582</v>
       </c>
       <c r="D106">
-        <v>-.1172752808988764</v>
+        <v>.12932937365862895</v>
       </c>
       <c r="E106">
-        <v>-.006870229007633588</v>
+        <v>.08802531903735214</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,10 +2186,10 @@
         <v>1578</v>
       </c>
       <c r="D107">
-        <v>-.13507358093903293</v>
+        <v>.13080032745199818</v>
       </c>
       <c r="E107">
-        <v>-.017831149927219795</v>
+        <v>.0964797211257519</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,10 +2203,10 @@
         <v>1566</v>
       </c>
       <c r="D108">
-        <v>-.13522809558291093</v>
+        <v>.13128794580006617</v>
       </c>
       <c r="E108">
-        <v>.0018642803877703207</v>
+        <v>.09460875413797955</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,10 +2220,10 @@
         <v>1561</v>
       </c>
       <c r="D109">
-        <v>-.13527272727272727</v>
+        <v>.12524674380165288</v>
       </c>
       <c r="E109">
-        <v>-.001918649270913277</v>
+        <v>.08643146843961835</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,10 +2237,10 @@
         <v>1554</v>
       </c>
       <c r="D110">
-        <v>-.1075168287210172</v>
+        <v>.11629166482524592</v>
       </c>
       <c r="E110">
-        <v>.025625978090766822</v>
+        <v>.09485387262717324</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,10 +2254,10 @@
         <v>1542</v>
       </c>
       <c r="D111">
-        <v>-.09542815674891146</v>
+        <v>.12206182684145002</v>
       </c>
       <c r="E111">
-        <v>.011673151750972763</v>
+        <v>.09441626671107815</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2271,10 +2271,10 @@
         <v>1544</v>
       </c>
       <c r="D112">
-        <v>-.08002936857562408</v>
+        <v>.12006372894659102</v>
       </c>
       <c r="E112">
-        <v>.013539282990083905</v>
+        <v>.08777435372000458</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,10 +2288,10 @@
         <v>1566</v>
       </c>
       <c r="D113">
-        <v>-.09901171303074671</v>
+        <v>.11972632929179466</v>
       </c>
       <c r="E113">
-        <v>-.018831667947732514</v>
+        <v>.09188210925079211</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,10 +2305,10 @@
         <v>1583</v>
       </c>
       <c r="D114">
-        <v>-.08834178131788559</v>
+        <v>.11882498383723242</v>
       </c>
       <c r="E114">
-        <v>.004961832061068702</v>
+        <v>.08823873900122371</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,10 +2322,10 @@
         <v>1580</v>
       </c>
       <c r="D115">
-        <v>-.0819373634377276</v>
+        <v>.1289381257197783</v>
       </c>
       <c r="E115">
-        <v>.0013318112633181126</v>
+        <v>.08233270116460364</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,10 +2339,10 @@
         <v>1578</v>
       </c>
       <c r="D116">
-        <v>-.06912096168294515</v>
+        <v>.11881357740433438</v>
       </c>
       <c r="E116">
-        <v>.013768686073957514</v>
+        <v>.0832093217889109</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,10 +2356,10 @@
         <v>1563</v>
       </c>
       <c r="D117">
-        <v>-.028846153846153848</v>
+        <v>.11503328402366864</v>
       </c>
       <c r="E117">
-        <v>.0370140612076096</v>
+        <v>.0908032429784611</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2373,10 +2373,10 @@
         <v>1555</v>
       </c>
       <c r="D118">
-        <v>-.044448476052249636</v>
+        <v>.1240675114962262</v>
       </c>
       <c r="E118">
-        <v>-.017158818834796488</v>
+        <v>.09148530358743166</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2390,10 +2390,10 @@
         <v>1544</v>
       </c>
       <c r="D119">
-        <v>-.03836077844311377</v>
+        <v>.12357523211436408</v>
       </c>
       <c r="E119">
-        <v>.005877742946708464</v>
+        <v>.09636043646387123</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,10 +2407,10 @@
         <v>1533</v>
       </c>
       <c r="D120">
-        <v>-.056245297215951846</v>
+        <v>.12329432959601774</v>
       </c>
       <c r="E120">
-        <v>-.01764234161988773</v>
+        <v>.08228698354800519</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2424,10 +2424,10 @@
         <v>1536</v>
       </c>
       <c r="D121">
-        <v>-.03863987635239567</v>
+        <v>.12031917015639894</v>
       </c>
       <c r="E121">
-        <v>.018902439024390243</v>
+        <v>.08719351080705928</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,10 +2441,10 @@
         <v>1525</v>
       </c>
       <c r="D122">
-        <v>-.023809523809523808</v>
+        <v>.10686870376565927</v>
       </c>
       <c r="E122">
-        <v>.015677257525083612</v>
+        <v>.09334745102124137</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2458,10 +2458,10 @@
         <v>1513</v>
       </c>
       <c r="D123">
-        <v>-.026455026455026454</v>
+        <v>.1097498670249993</v>
       </c>
       <c r="E123">
-        <v>.0016313213703099511</v>
+        <v>.08849652312990161</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,10 +2475,10 @@
         <v>1511</v>
       </c>
       <c r="D124">
-        <v>-.03049242424242424</v>
+        <v>.10716680297291092</v>
       </c>
       <c r="E124">
-        <v>-.010325655281969817</v>
+        <v>.08249862309875647</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,10 +2492,10 @@
         <v>1504</v>
       </c>
       <c r="D125">
-        <v>-.03828483920367534</v>
+        <v>.1154944548543769</v>
       </c>
       <c r="E125">
-        <v>-.0012028869286287089</v>
+        <v>.090616035019733</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,10 +2509,10 @@
         <v>1499</v>
       </c>
       <c r="D126">
-        <v>-.0658096699923254</v>
+        <v>.11515297068162554</v>
       </c>
       <c r="E126">
-        <v>-.026273241713823767</v>
+        <v>.07924100213767236</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,10 +2526,10 @@
         <v>1502</v>
       </c>
       <c r="D127">
-        <v>-.053474903474903475</v>
+        <v>.11813464319255824</v>
       </c>
       <c r="E127">
-        <v>.008921330089213302</v>
+        <v>.08041513817438657</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,10 +2543,10 @@
         <v>1505</v>
       </c>
       <c r="D128">
-        <v>-.06839622641509434</v>
+        <v>.11953579269016258</v>
       </c>
       <c r="E128">
-        <v>-.011184755592377795</v>
+        <v>.0850033188065475</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2560,10 +2560,10 @@
         <v>1503</v>
       </c>
       <c r="D129">
-        <v>-.0404874213836478</v>
+        <v>.10734268694869666</v>
       </c>
       <c r="E129">
-        <v>.02824978759558199</v>
+        <v>.08527883990012484</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,10 +2577,10 @@
         <v>1503</v>
       </c>
       <c r="D130">
-        <v>-.05515542077331312</v>
+        <v>.12067850124241203</v>
       </c>
       <c r="E130">
-        <v>-.019579554822753503</v>
+        <v>.08911581663063448</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2594,10 +2594,10 @@
         <v>1507</v>
       </c>
       <c r="D131">
-        <v>-.11226851851851852</v>
+        <v>.13033559456447188</v>
       </c>
       <c r="E131">
-        <v>-.05092966855295069</v>
+        <v>.09027197322648675</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,10 +2611,10 @@
         <v>1505</v>
       </c>
       <c r="D132">
-        <v>-.14721586575133486</v>
+        <v>.1297386254080796</v>
       </c>
       <c r="E132">
-        <v>-.041193181818181816</v>
+        <v>.09474183930416173</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2628,10 +2628,10 @@
         <v>1492</v>
       </c>
       <c r="D133">
-        <v>-.1469380134428678</v>
+        <v>.12231325306580713</v>
       </c>
       <c r="E133">
-        <v>.0011876484560570072</v>
+        <v>.08709280960199203</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>1600</v>
       </c>
       <c r="D134">
-        <v>-.1136890951276102</v>
+        <v>.11342823125772729</v>
       </c>
       <c r="E134">
-        <v>.032232070910556</v>
+        <v>.09122539658628344</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2662,10 +2662,10 @@
         <v>1651</v>
       </c>
       <c r="D135">
-        <v>-.11069915254237288</v>
+        <v>.11482020327611799</v>
       </c>
       <c r="E135">
-        <v>-.003257328990228013</v>
+        <v>.10249346146908721</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>1624</v>
       </c>
       <c r="D136">
-        <v>-.12952836637047163</v>
+        <v>.11745001679616923</v>
       </c>
       <c r="E136">
-        <v>-.01801634472511144</v>
+        <v>.08971070107014566</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,10 +2696,10 @@
         <v>1703</v>
       </c>
       <c r="D137">
-        <v>-.09548846675712347</v>
+        <v>.11278663385612948</v>
       </c>
       <c r="E137">
-        <v>.03054953000723066</v>
+        <v>.09229702267331491</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2713,10 +2713,10 @@
         <v>1743</v>
       </c>
       <c r="D138">
-        <v>-.09570690768237573</v>
+        <v>.11805936148230328</v>
       </c>
       <c r="E138">
-        <v>-.006944444444444444</v>
+        <v>.08248743535201869</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,10 +2730,10 @@
         <v>1881</v>
       </c>
       <c r="D139">
-        <v>-.08674121405750798</v>
+        <v>.1261420959691331</v>
       </c>
       <c r="E139">
-        <v>.010245901639344262</v>
+        <v>.08476524007883186</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
         <v>1942</v>
       </c>
       <c r="D140">
-        <v>-.07226683137739345</v>
+        <v>.13267126666389434</v>
       </c>
       <c r="E140">
-        <v>.012035763411279229</v>
+        <v>.0923585791886538</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2764,10 +2764,10 @@
         <v>1934</v>
       </c>
       <c r="D141">
-        <v>-.042818509615384616</v>
+        <v>.11621795744585567</v>
       </c>
       <c r="E141">
-        <v>.023722627737226276</v>
+        <v>.07844354084830403</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>1986</v>
       </c>
       <c r="D142">
-        <v>-.026691948658109685</v>
+        <v>.12301128550110355</v>
       </c>
       <c r="E142">
-        <v>.013610763454317897</v>
+        <v>.09027939042232076</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,10 +2798,10 @@
         <v>1992</v>
       </c>
       <c r="D143">
-        <v>-.025754126351735913</v>
+        <v>.12977924062753782</v>
       </c>
       <c r="E143">
-        <v>-.0053779963122311</v>
+        <v>.08690254611694405</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -2815,10 +2815,10 @@
         <v>2071</v>
       </c>
       <c r="D144">
-        <v>-.03796761585706309</v>
+        <v>.1308867683538357</v>
       </c>
       <c r="E144">
-        <v>-.019021739130434784</v>
+        <v>.08614179662885948</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,10 +2832,10 @@
         <v>2112</v>
       </c>
       <c r="D145">
-        <v>-.018131868131868133</v>
+        <v>.12460255403936724</v>
       </c>
       <c r="E145">
-        <v>.01902654867256637</v>
+        <v>.08514684000313259</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,10 +2849,10 @@
         <v>2116</v>
       </c>
       <c r="D146">
-        <v>-.007709251101321586</v>
+        <v>.11076105202895457</v>
       </c>
       <c r="E146">
-        <v>.010101010101010102</v>
+        <v>.0908070605040302</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,10 +2866,10 @@
         <v>2146</v>
       </c>
       <c r="D147">
-        <v>-.0005324813631522897</v>
+        <v>.1152819315860686</v>
       </c>
       <c r="E147">
-        <v>.008610792192881744</v>
+        <v>.09557740420040571</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>2178</v>
       </c>
       <c r="D148">
-        <v>.03497942386831276</v>
+        <v>.11168796253958578</v>
       </c>
       <c r="E148">
-        <v>.028931339977851606</v>
+        <v>.09519703072323216</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,10 +2900,10 @@
         <v>2181</v>
       </c>
       <c r="D149">
-        <v>.03258602711157456</v>
+        <v>.12439435521664578</v>
       </c>
       <c r="E149">
-        <v>-.003002183406113537</v>
+        <v>.09380921833584409</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,10 +2917,10 @@
         <v>2194</v>
       </c>
       <c r="D150">
-        <v>.007991475759190196</v>
+        <v>.1132819008330379</v>
       </c>
       <c r="E150">
-        <v>-.02547327394209354</v>
+        <v>.0917439296866087</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,10 +2934,10 @@
         <v>2190</v>
       </c>
       <c r="D151">
-        <v>.034482758620689655</v>
+        <v>.12056160248788073</v>
       </c>
       <c r="E151">
-        <v>.02556818181818182</v>
+        <v>.08350819989669421</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,10 +2951,10 @@
         <v>2198</v>
       </c>
       <c r="D152">
-        <v>.036792970895112576</v>
+        <v>.12330305928063012</v>
       </c>
       <c r="E152">
-        <v>.008615654205607476</v>
+        <v>.0813729083530767</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -2968,10 +2968,10 @@
         <v>2196</v>
       </c>
       <c r="D153">
-        <v>.03302401746724891</v>
+        <v>.10971727453233157</v>
       </c>
       <c r="E153">
-        <v>-.011167361524717093</v>
+        <v>.08940030492639163</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,10 +2985,10 @@
         <v>2202</v>
       </c>
       <c r="D154">
-        <v>.04342723004694836</v>
+        <v>.12464641789180571</v>
       </c>
       <c r="E154">
-        <v>.009264538198403649</v>
+        <v>.08924569626811628</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3002,10 +3002,10 @@
         <v>2177</v>
       </c>
       <c r="D155">
-        <v>.028897136797454932</v>
+        <v>.12522540087197173</v>
       </c>
       <c r="E155">
-        <v>-.01814404432132964</v>
+        <v>.08724004573322795</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,10 +3019,10 @@
         <v>2165</v>
       </c>
       <c r="D156">
-        <v>-.003430079155672823</v>
+        <v>.11456607096859531</v>
       </c>
       <c r="E156">
-        <v>-.03433001107419712</v>
+        <v>.08201635620896998</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,10 +3036,10 @@
         <v>2156</v>
       </c>
       <c r="D157">
-        <v>.0016120365394948952</v>
+        <v>.11465350020976975</v>
       </c>
       <c r="E157">
-        <v>.002952755905511811</v>
+        <v>.09043700676687068</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,10 +3053,10 @@
         <v>2142</v>
       </c>
       <c r="D158">
-        <v>-.0027129679869777536</v>
+        <v>.10593403969618292</v>
       </c>
       <c r="E158">
-        <v>-.0035919540229885057</v>
+        <v>.08256612085480247</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>2206</v>
       </c>
       <c r="D159">
-        <v>-.016769865841073272</v>
+        <v>.1106578840867725</v>
       </c>
       <c r="E159">
-        <v>-.011396422388920946</v>
+        <v>.09309718445344421</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,10 +3087,10 @@
         <v>2204</v>
       </c>
       <c r="D160">
-        <v>-.040565059616381544</v>
+        <v>.11185240232504828</v>
       </c>
       <c r="E160">
-        <v>-.02779284164859002</v>
+        <v>.08582598528498361</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,10 +3104,10 @@
         <v>2203</v>
       </c>
       <c r="D161">
-        <v>-.08088614116434828</v>
+        <v>.11968102825203367</v>
       </c>
       <c r="E161">
-        <v>-.03723404255319149</v>
+        <v>.09166463534956067</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,10 +3121,10 @@
         <v>2251</v>
       </c>
       <c r="D162">
-        <v>-.10466321243523316</v>
+        <v>.11326840989019839</v>
       </c>
       <c r="E162">
-        <v>-.028412180532898314</v>
+        <v>.08786186164608813</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,10 +3138,10 @@
         <v>2310</v>
       </c>
       <c r="D163">
-        <v>-.10081674323634507</v>
+        <v>.1216634472745389</v>
       </c>
       <c r="E163">
-        <v>.007189365165491048</v>
+        <v>.09208748828624913</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,10 +3155,10 @@
         <v>2309</v>
       </c>
       <c r="D164">
-        <v>-.08092705167173252</v>
+        <v>.12969068059546138</v>
       </c>
       <c r="E164">
-        <v>.009274413529732678</v>
+        <v>.09252173211674554</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,10 +3172,10 @@
         <v>2284</v>
       </c>
       <c r="D165">
-        <v>-.06523378582202112</v>
+        <v>.11901629778260066</v>
       </c>
       <c r="E165">
-        <v>.011345218800648298</v>
+        <v>.0858383308509921</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,10 +3189,10 @@
         <v>2276</v>
       </c>
       <c r="D166">
-        <v>-.0969637610186092</v>
+        <v>.12851428761915543</v>
       </c>
       <c r="E166">
-        <v>-.02836411609498681</v>
+        <v>.0924342631978335</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,10 +3206,10 @@
         <v>2261</v>
       </c>
       <c r="D167">
-        <v>-.1679268292682927</v>
+        <v>.14164814098750744</v>
       </c>
       <c r="E167">
-        <v>-.07595262615859938</v>
+        <v>.10635787211205283</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,10 +3223,10 @@
         <v>2251</v>
       </c>
       <c r="D168">
-        <v>-.17590750870213823</v>
+        <v>.13542278408583722</v>
       </c>
       <c r="E168">
-        <v>-.004932502596053998</v>
+        <v>.09875552503911604</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,10 +3240,10 @@
         <v>2236</v>
       </c>
       <c r="D169">
-        <v>-.16776482513938165</v>
+        <v>.1245412280176709</v>
       </c>
       <c r="E169">
-        <v>.010460805084745763</v>
+        <v>.08460323045528405</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>2209</v>
       </c>
       <c r="D170">
-        <v>-.13054382259767688</v>
+        <v>.12079489961073094</v>
       </c>
       <c r="E170">
-        <v>.04058888277380297</v>
+        <v>.08947114468653386</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,10 +3274,10 @@
         <v>2195</v>
       </c>
       <c r="D171">
-        <v>-.10827780625320349</v>
+        <v>.1246482898149722</v>
       </c>
       <c r="E171">
-        <v>.024265113699389905</v>
+        <v>.10031941279847571</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3291,10 +3291,10 @@
         <v>2172</v>
       </c>
       <c r="D172">
-        <v>-.10199069286452947</v>
+        <v>.11728016330531105</v>
       </c>
       <c r="E172">
-        <v>.003394894079304726</v>
+        <v>.09175246165779703</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,10 +3308,10 @@
         <v>2159</v>
       </c>
       <c r="D173">
-        <v>-.09755784061696658</v>
+        <v>.11120868881384606</v>
       </c>
       <c r="E173">
-        <v>.0029956427015250544</v>
+        <v>.09054113505726667</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,10 +3325,10 @@
         <v>2151</v>
       </c>
       <c r="D174">
-        <v>-.09193121693121693</v>
+        <v>.11869812225301643</v>
       </c>
       <c r="E174">
-        <v>.0027548209366391185</v>
+        <v>.08511637790375581</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,10 +3342,10 @@
         <v>2143</v>
       </c>
       <c r="D175">
-        <v>-.0979394887845592</v>
+        <v>.12091776785638968</v>
       </c>
       <c r="E175">
-        <v>-.006520532741398446</v>
+        <v>.08573023514999364</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,10 +3359,10 @@
         <v>2133</v>
       </c>
       <c r="D176">
-        <v>-.1149378714208536</v>
+        <v>.12202024195311366</v>
       </c>
       <c r="E176">
-        <v>-.015870786516853932</v>
+        <v>.08910907319151623</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,10 +3376,10 @@
         <v>2155</v>
       </c>
       <c r="D177">
-        <v>-.0975544922913344</v>
+        <v>.11535021300613511</v>
       </c>
       <c r="E177">
-        <v>.02003484320557491</v>
+        <v>.08206085825168853</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3393,10 +3393,10 @@
         <v>2146</v>
       </c>
       <c r="D178">
-        <v>-.1012591815320042</v>
+        <v>.11992758550069423</v>
       </c>
       <c r="E178">
-        <v>-.0029329608938547485</v>
+        <v>.08166039215380294</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,10 +3410,10 @@
         <v>2126</v>
       </c>
       <c r="D179">
-        <v>-.14518633540372672</v>
+        <v>.12643645596234712</v>
       </c>
       <c r="E179">
-        <v>-.04866047020229634</v>
+        <v>.08839213676981718</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,10 +3427,10 @@
         <v>2116</v>
       </c>
       <c r="D180">
-        <v>-.1410826359832636</v>
+        <v>.11467335718803062</v>
       </c>
       <c r="E180">
-        <v>.004395604395604396</v>
+        <v>.09057133800265668</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3444,10 +3444,10 @@
         <v>2106</v>
       </c>
       <c r="D181">
-        <v>-.14726027397260275</v>
+        <v>.11418111350087327</v>
       </c>
       <c r="E181">
-        <v>-.007131102578167855</v>
+        <v>.07921409526411619</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,10 +3461,10 @@
         <v>2090</v>
       </c>
       <c r="D182">
-        <v>-.14156300703082747</v>
+        <v>.10911756782567923</v>
       </c>
       <c r="E182">
-        <v>.006806579693703914</v>
+        <v>.08262525300265205</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,10 +3478,10 @@
         <v>2076</v>
       </c>
       <c r="D183">
-        <v>-.13151595744680852</v>
+        <v>.11006392527727478</v>
       </c>
       <c r="E183">
-        <v>.007618510158013544</v>
+        <v>.0876959086415727</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,10 +3495,10 @@
         <v>2064</v>
       </c>
       <c r="D184">
-        <v>-.1501597444089457</v>
+        <v>.11516504370430102</v>
       </c>
       <c r="E184">
-        <v>-.01957245974458634</v>
+        <v>.08168937856413289</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,10 +3512,10 @@
         <v>2053</v>
       </c>
       <c r="D185">
-        <v>-.17691256830601093</v>
+        <v>.11996560437755681</v>
       </c>
       <c r="E185">
-        <v>-.024858757062146894</v>
+        <v>.08476339812952856</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,10 +3529,10 @@
         <v>2040</v>
       </c>
       <c r="D186">
-        <v>-.1659710628825821</v>
+        <v>.12447781329731211</v>
       </c>
       <c r="E186">
-        <v>.014834205933682374</v>
+        <v>.08689454784682438</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,10 +3546,10 @@
         <v>2035</v>
       </c>
       <c r="D187">
-        <v>-.18403730115194733</v>
+        <v>.11979181868542055</v>
       </c>
       <c r="E187">
-        <v>-.017877906976744184</v>
+        <v>.08358299672120065</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,10 +3563,10 @@
         <v>2018</v>
       </c>
       <c r="D188">
-        <v>-.16849971799210378</v>
+        <v>.11730017442180422</v>
       </c>
       <c r="E188">
-        <v>.01078088578088578</v>
+        <v>.07921069557870258</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,10 +3580,10 @@
         <v>2010</v>
       </c>
       <c r="D189">
-        <v>-.12726500566251417</v>
+        <v>.10643244053077573</v>
       </c>
       <c r="E189">
-        <v>.04284852142426071</v>
+        <v>.08446454736202623</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,10 +3597,10 @@
         <v>1985</v>
       </c>
       <c r="D190">
-        <v>-.13018815716657442</v>
+        <v>.11493399890789338</v>
       </c>
       <c r="E190">
-        <v>-.010294117647058823</v>
+        <v>.07761461937716263</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,10 +3614,10 @@
         <v>1971</v>
       </c>
       <c r="D191">
-        <v>-.14991506228765572</v>
+        <v>.11869903015817845</v>
       </c>
       <c r="E191">
-        <v>-.013774912075029308</v>
+        <v>.08920063866719624</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,10 +3631,10 @@
         <v>1967</v>
       </c>
       <c r="D192">
-        <v>-.12724971878515184</v>
+        <v>.11052995001398166</v>
       </c>
       <c r="E192">
-        <v>.021854695806261076</v>
+        <v>.07911481172780173</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,10 +3648,10 @@
         <v>1952</v>
       </c>
       <c r="D193">
-        <v>-.11895276038702333</v>
+        <v>.10622588109226644</v>
       </c>
       <c r="E193">
-        <v>.006973293768545994</v>
+        <v>.07884603192772675</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,10 +3665,10 @@
         <v>1937</v>
       </c>
       <c r="D194">
-        <v>-.09495677233429395</v>
+        <v>.10247456585471185</v>
       </c>
       <c r="E194">
-        <v>.02724262492474413</v>
+        <v>.0829799947153253</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>1928</v>
       </c>
       <c r="D195">
-        <v>-.07539908779931585</v>
+        <v>.09903989204021692</v>
       </c>
       <c r="E195">
-        <v>.015954244431065624</v>
+        <v>.08290319838806548</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,10 +3699,10 @@
         <v>1921</v>
       </c>
       <c r="D196">
-        <v>-.08935685828116106</v>
+        <v>.1074820564882514</v>
       </c>
       <c r="E196">
-        <v>-.015903686087990487</v>
+        <v>.07818791700187054</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,10 +3716,10 @@
         <v>1912</v>
       </c>
       <c r="D197">
-        <v>-.07590569292696953</v>
+        <v>.1168662728773088</v>
       </c>
       <c r="E197">
-        <v>.01032934131736527</v>
+        <v>.08398761608519488</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -3733,10 +3733,10 @@
         <v>1899</v>
       </c>
       <c r="D198">
-        <v>-.07747747747747748</v>
+        <v>.11426751075399723</v>
       </c>
       <c r="E198">
-        <v>-.0018598884066955983</v>
+        <v>.07400460033154366</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>1893</v>
       </c>
       <c r="D199">
-        <v>-.07050528789659224</v>
+        <v>.11011419826816035</v>
       </c>
       <c r="E199">
-        <v>.0020337922403003755</v>
+        <v>.07270393627986171</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,10 +3767,10 @@
         <v>1874</v>
       </c>
       <c r="D200">
-        <v>-.0391733497840839</v>
+        <v>.11282386939463954</v>
       </c>
       <c r="E200">
-        <v>.030911408540471638</v>
+        <v>.07990809221528816</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,10 +3784,10 @@
         <v>1863</v>
       </c>
       <c r="D201">
-        <v>-.04435236341313689</v>
+        <v>.1121749795846537</v>
       </c>
       <c r="E201">
-        <v>-.006949040370615486</v>
+        <v>.07432298813772902</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,10 +3801,10 @@
         <v>1844</v>
       </c>
       <c r="D202">
-        <v>-.0540621266427718</v>
+        <v>.1107272267257044</v>
       </c>
       <c r="E202">
-        <v>-.010403329065300896</v>
+        <v>.07203485653181105</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,10 +3818,10 @@
         <v>1830</v>
       </c>
       <c r="D203">
-        <v>-.07357449417535254</v>
+        <v>.1141453468417889</v>
       </c>
       <c r="E203">
-        <v>-.02252396166134185</v>
+        <v>.07876583409037553</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,10 +3835,10 @@
         <v>1825</v>
       </c>
       <c r="D204">
-        <v>-.09780621572212066</v>
+        <v>.11208232929713567</v>
       </c>
       <c r="E204">
-        <v>-.019626769626769628</v>
+        <v>.07892624422547202</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,10 +3852,10 @@
         <v>1818</v>
       </c>
       <c r="D205">
-        <v>-.08846857840146431</v>
+        <v>.10931791100170082</v>
       </c>
       <c r="E205">
-        <v>.005438259756877799</v>
+        <v>.08050465437752177</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,10 +3869,10 @@
         <v>1810</v>
       </c>
       <c r="D206">
-        <v>-.08495909376966645</v>
+        <v>.10771272645758026</v>
       </c>
       <c r="E206">
-        <v>.004551365409622887</v>
+        <v>.07865288715353227</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,10 +3886,10 @@
         <v>1779</v>
       </c>
       <c r="D207">
-        <v>-.07720815318097592</v>
+        <v>.10197589922938728</v>
       </c>
       <c r="E207">
-        <v>.004772876892692561</v>
+        <v>.0810749813314865</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,10 +3903,10 @@
         <v>1769</v>
       </c>
       <c r="D208">
-        <v>-.09156886967263743</v>
+        <v>.10823805748673967</v>
       </c>
       <c r="E208">
-        <v>-.010497416020671835</v>
+        <v>.07995278875301297</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,10 +3920,10 @@
         <v>1766</v>
       </c>
       <c r="D209">
-        <v>-.10712015257469804</v>
+        <v>.11296901099247514</v>
       </c>
       <c r="E209">
-        <v>-.014063534083388484</v>
+        <v>.07785483117189146</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>1751</v>
       </c>
       <c r="D210">
-        <v>-.12154784842646114</v>
+        <v>.11773254315047671</v>
       </c>
       <c r="E210">
-        <v>-.019309637730690363</v>
+        <v>.07349077425434586</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,10 +3954,10 @@
         <v>1740</v>
       </c>
       <c r="D211">
-        <v>-.11673027989821882</v>
+        <v>.11670164989737714</v>
       </c>
       <c r="E211">
-        <v>.006072874493927126</v>
+        <v>.08042870723991542</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,10 +3971,10 @@
         <v>1733</v>
       </c>
       <c r="D212">
-        <v>-.10043160690571049</v>
+        <v>.1191050593994099</v>
       </c>
       <c r="E212">
-        <v>.00966183574879227</v>
+        <v>.07780519965460103</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,10 +3988,10 @@
         <v>1725</v>
       </c>
       <c r="D213">
-        <v>-.07884231536926148</v>
+        <v>.10115248544826515</v>
       </c>
       <c r="E213">
-        <v>.02014388489208633</v>
+        <v>.07405465555613064</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,10 +4005,10 @@
         <v>1706</v>
       </c>
       <c r="D214">
-        <v>-.07113037893384715</v>
+        <v>.10970443836421093</v>
       </c>
       <c r="E214">
-        <v>.006206896551724138</v>
+        <v>.07280630202140309</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,10 +4022,10 @@
         <v>1696</v>
       </c>
       <c r="D215">
-        <v>-.0708955223880597</v>
+        <v>.11222723178397435</v>
       </c>
       <c r="E215">
-        <v>-.004054054054054054</v>
+        <v>.07219640248356464</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,10 +4039,10 @@
         <v>1685</v>
       </c>
       <c r="D216">
-        <v>-.06556572923479398</v>
+        <v>.10856084738012552</v>
       </c>
       <c r="E216">
-        <v>.005802047781569966</v>
+        <v>.07018817924495335</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,10 +4056,10 @@
         <v>1699</v>
       </c>
       <c r="D217">
-        <v>-.05210387902695595</v>
+        <v>.1012053041335396</v>
       </c>
       <c r="E217">
-        <v>.017325017325017324</v>
+        <v>.06874003781488189</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,10 +4073,10 @@
         <v>1688</v>
       </c>
       <c r="D218">
-        <v>-.04960053262316911</v>
+        <v>.10056908143779889</v>
       </c>
       <c r="E218">
-        <v>.0006988120195667365</v>
+        <v>.06804633206707228</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,10 +4090,10 @@
         <v>1681</v>
       </c>
       <c r="D219">
-        <v>-.038524590163934426</v>
+        <v>.10749126578876646</v>
       </c>
       <c r="E219">
-        <v>.010612386917188587</v>
+        <v>.07395661871921563</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,10 +4107,10 @@
         <v>1675</v>
       </c>
       <c r="D220">
-        <v>-.03564421190320471</v>
+        <v>.09503426452012777</v>
       </c>
       <c r="E220">
-        <v>.002054794520547945</v>
+        <v>.06540673672358792</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,10 +4124,10 @@
         <v>1671</v>
       </c>
       <c r="D221">
-        <v>-.022044088176352707</v>
+        <v>.1094839980562327</v>
       </c>
       <c r="E221">
-        <v>.012152777777777778</v>
+        <v>.06747383777006173</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,10 +4141,10 @@
         <v>1658</v>
       </c>
       <c r="D222">
-        <v>-.01937457511896669</v>
+        <v>.10830919415982966</v>
       </c>
       <c r="E222">
-        <v>.0008922198429693076</v>
+        <v>.06178542806937637</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,10 +4158,10 @@
         <v>1648</v>
       </c>
       <c r="D223">
-        <v>-.00535475234270415</v>
+        <v>.10464000132614348</v>
       </c>
       <c r="E223">
-        <v>.008185053380782919</v>
+        <v>.0681714390648548</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>1645</v>
       </c>
       <c r="D224">
-        <v>.011688764829030007</v>
+        <v>.10955458003427337</v>
       </c>
       <c r="E224">
-        <v>.017361111111111112</v>
+        <v>.07138170585607538</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,10 +4192,10 @@
         <v>1635</v>
       </c>
       <c r="D225">
-        <v>.0006988120195667365</v>
+        <v>.10062844247937139</v>
       </c>
       <c r="E225">
-        <v>-.014285714285714285</v>
+        <v>.07348012889366273</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,10 +4209,10 @@
         <v>1626</v>
       </c>
       <c r="D226">
-        <v>.012066621346023114</v>
+        <v>.09693971276078048</v>
       </c>
       <c r="E226">
-        <v>.010174418604651164</v>
+        <v>.06757453353163873</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
         <v>1617</v>
       </c>
       <c r="D227">
-        <v>.005794137695978187</v>
+        <v>.09787031344893261</v>
       </c>
       <c r="E227">
-        <v>-.007097232079488999</v>
+        <v>.07092195009169987</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,10 +4243,10 @@
         <v>1609</v>
       </c>
       <c r="D228">
-        <v>-.003479471120389701</v>
+        <v>.09950076732386781</v>
       </c>
       <c r="E228">
-        <v>-.010822510822510822</v>
+        <v>.06986844324506664</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4260,10 +4260,10 @@
         <v>1618</v>
       </c>
       <c r="D229">
-        <v>-.004319281271596406</v>
+        <v>.08926088769319455</v>
       </c>
       <c r="E229">
-        <v>.0016605166051660517</v>
+        <v>.07052307294290655</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4277,10 +4277,10 @@
         <v>1621</v>
       </c>
       <c r="D230">
-        <v>.009214186369958275</v>
+        <v>.09453436163463008</v>
       </c>
       <c r="E230">
-        <v>.01209077380952381</v>
+        <v>.06918975068868694</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,10 +4294,10 @@
         <v>1621</v>
       </c>
       <c r="D231">
-        <v>.008401920438957476</v>
+        <v>.09376514161496763</v>
       </c>
       <c r="E231">
-        <v>-.0016544117647058823</v>
+        <v>.0830395423334775</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4311,10 +4311,10 @@
         <v>1618</v>
       </c>
       <c r="D232">
-        <v>.013420509291121816</v>
+        <v>.09634432213958921</v>
       </c>
       <c r="E232">
-        <v>.004130747126436782</v>
+        <v>.07034033635346479</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4328,10 +4328,10 @@
         <v>1612</v>
       </c>
       <c r="D233">
-        <v>.0297990297990298</v>
+        <v>.1016761203871391</v>
       </c>
       <c r="E233">
-        <v>.013646288209606987</v>
+        <v>.06399682103061854</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,10 +4345,10 @@
         <v>1608</v>
       </c>
       <c r="D234">
-        <v>.02501799856011519</v>
+        <v>.10327078801298488</v>
       </c>
       <c r="E234">
-        <v>-.008119335347432024</v>
+        <v>.06890122140862168</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,10 +4362,10 @@
         <v>1613</v>
       </c>
       <c r="D235">
-        <v>.015104166666666667</v>
+        <v>.09356526692708333</v>
       </c>
       <c r="E235">
-        <v>-.005291005291005291</v>
+        <v>.06412544441644971</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4379,10 +4379,10 @@
         <v>1603</v>
       </c>
       <c r="D236">
-        <v>.014769452449567724</v>
+        <v>.10659022062304313</v>
       </c>
       <c r="E236">
-        <v>-.00850983358547655</v>
+        <v>.06956638757349726</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4396,10 +4396,10 @@
         <v>1606</v>
       </c>
       <c r="D237">
-        <v>.015445402298850575</v>
+        <v>.08605813495012551</v>
       </c>
       <c r="E237">
-        <v>-.0048638132295719845</v>
+        <v>.07132848339868886</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,10 +4413,10 @@
         <v>1596</v>
       </c>
       <c r="D238">
-        <v>.019417475728155338</v>
+        <v>.09515000740611071</v>
       </c>
       <c r="E238">
-        <v>-.0030372057706909645</v>
+        <v>.06785334181998272</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>1591</v>
       </c>
       <c r="D239">
-        <v>-.011379800853485065</v>
+        <v>.09935485290636148</v>
       </c>
       <c r="E239">
-        <v>-.030551415797317436</v>
+        <v>.07050848878711623</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,10 +4447,10 @@
         <v>1587</v>
       </c>
       <c r="D240">
-        <v>-.022178850248403124</v>
+        <v>.09412307376134663</v>
       </c>
       <c r="E240">
-        <v>-.006415094339622641</v>
+        <v>.06873243147027412</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,10 +4464,10 @@
         <v>1580</v>
       </c>
       <c r="D241">
-        <v>-.040092658588738415</v>
+        <v>.09448131714496327</v>
       </c>
       <c r="E241">
-        <v>-.017911585365853657</v>
+        <v>.06675234584138906</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -4481,10 +4481,10 @@
         <v>1572</v>
       </c>
       <c r="D242">
-        <v>-.02969208211143695</v>
+        <v>.09745049169683784</v>
       </c>
       <c r="E242">
-        <v>.007099002302379125</v>
+        <v>.07213878298442286</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -4498,10 +4498,10 @@
         <v>1562</v>
       </c>
       <c r="D243">
-        <v>-.02087832973362131</v>
+        <v>.0948664711574694</v>
       </c>
       <c r="E243">
-        <v>.008058326937835763</v>
+        <v>.07380306029712412</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -4515,10 +4515,10 @@
         <v>1557</v>
       </c>
       <c r="D244">
-        <v>-.02099644128113879</v>
+        <v>.0995591494535277</v>
       </c>
       <c r="E244">
-        <v>-.00149812734082397</v>
+        <v>.06788165074555681</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -4532,10 +4532,10 @@
         <v>1544</v>
       </c>
       <c r="D245">
-        <v>-.04951958610495196</v>
+        <v>.1064724225653867</v>
       </c>
       <c r="E245">
-        <v>-.030819295558958654</v>
+        <v>.06992497959705353</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>1539</v>
       </c>
       <c r="D246">
-        <v>-.05310077519379845</v>
+        <v>.11152139294513551</v>
       </c>
       <c r="E246">
-        <v>-.004893964110929853</v>
+        <v>.07940100833224667</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,10 +4566,10 @@
         <v>1527</v>
       </c>
       <c r="D247">
-        <v>-.06557678177810433</v>
+        <v>.10779557107002512</v>
       </c>
       <c r="E247">
-        <v>-.013371150729335495</v>
+        <v>.07224827877874065</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,10 +4583,10 @@
         <v>1527</v>
       </c>
       <c r="D248">
-        <v>-.07555470543228768</v>
+        <v>.12335613836156205</v>
       </c>
       <c r="E248">
-        <v>-.0156</v>
+        <v>.06845664</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -4600,10 +4600,10 @@
         <v>1537</v>
       </c>
       <c r="D249">
-        <v>-.06856702619414484</v>
+        <v>.1046013364165802</v>
       </c>
       <c r="E249">
-        <v>.003746877601998335</v>
+        <v>.07471535308142466</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>1544</v>
       </c>
       <c r="D250">
-        <v>-.10748349229640498</v>
+        <v>.12032550871502323</v>
       </c>
       <c r="E250">
-        <v>-.034874290348742905</v>
+        <v>.0756288771411225</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -4634,10 +4634,10 @@
         <v>1541</v>
       </c>
       <c r="D251">
-        <v>-.17320754716981132</v>
+        <v>.13754631541473833</v>
       </c>
       <c r="E251">
-        <v>-.06420545746388442</v>
+        <v>.09409194494613904</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -4651,10 +4651,10 @@
         <v>1528</v>
       </c>
       <c r="D252">
-        <v>-.25501156515034695</v>
+        <v>.14347912476987104</v>
       </c>
       <c r="E252">
-        <v>-.07799671592775041</v>
+        <v>.09510698849496199</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,10 +4668,10 @@
         <v>1520</v>
       </c>
       <c r="D253">
-        <v>-.31484375</v>
+        <v>.1346624755859375</v>
       </c>
       <c r="E253">
-        <v>-.06015820149875104</v>
+        <v>.08958457114214427</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,10 +4685,10 @@
         <v>1507</v>
       </c>
       <c r="D254">
-        <v>-.2991504854368932</v>
+        <v>.1416477411081786</v>
       </c>
       <c r="E254">
-        <v>.021262886597938145</v>
+        <v>.08153886903496653</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -4702,10 +4702,10 @@
         <v>1496</v>
       </c>
       <c r="D255">
-        <v>-.30896946564885497</v>
+        <v>.13903214410582132</v>
       </c>
       <c r="E255">
-        <v>-.01267962806424345</v>
+        <v>.08246813658413893</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,10 +4719,10 @@
         <v>1495</v>
       </c>
       <c r="D256">
-        <v>-.32597105864432596</v>
+        <v>.13831636473741699</v>
       </c>
       <c r="E256">
-        <v>-.023819055244195357</v>
+        <v>.0805475445208048</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -4736,10 +4736,10 @@
         <v>1492</v>
       </c>
       <c r="D257">
-        <v>-.31095123900879296</v>
+        <v>.1369224364712866</v>
       </c>
       <c r="E257">
-        <v>.02418682235195997</v>
+        <v>.08052425533927704</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,10 +4753,10 @@
         <v>1489</v>
       </c>
       <c r="D258">
-        <v>-.3062200956937799</v>
+        <v>.12811920514640235</v>
       </c>
       <c r="E258">
-        <v>.002134927412467976</v>
+        <v>.0803754591643628</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -4770,10 +4770,10 @@
         <v>1483</v>
       </c>
       <c r="D259">
-        <v>-.272815158546017</v>
+        <v>.13240676939125484</v>
       </c>
       <c r="E259">
-        <v>.0338628762541806</v>
+        <v>.08058407484256329</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -4787,10 +4787,10 @@
         <v>1469</v>
       </c>
       <c r="D260">
-        <v>-.24450772986167615</v>
+        <v>.13681889924863005</v>
       </c>
       <c r="E260">
-        <v>.02398132427843803</v>
+        <v>.09190155143389991</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>1445</v>
       </c>
       <c r="D261">
-        <v>-.18668831168831168</v>
+        <v>.11804925999325351</v>
       </c>
       <c r="E261">
-        <v>.055458515283842796</v>
+        <v>.08262304303884359</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,10 +4821,10 @@
         <v>1444</v>
       </c>
       <c r="D262">
-        <v>-.18502377179080823</v>
+        <v>.1184999598152506</v>
       </c>
       <c r="E262">
-        <v>-.005172413793103448</v>
+        <v>.07217152199762189</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -4838,10 +4838,10 @@
         <v>1435</v>
       </c>
       <c r="D263">
-        <v>-.19293257514216083</v>
+        <v>.12270797189580569</v>
       </c>
       <c r="E263">
-        <v>-.005784061696658098</v>
+        <v>.08035429098847263</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,10 +4855,10 @@
         <v>1429</v>
       </c>
       <c r="D264">
-        <v>-.18000804505229284</v>
+        <v>.11819042632304864</v>
       </c>
       <c r="E264">
-        <v>.011029411764705883</v>
+        <v>.08449124134948097</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,10 +4872,10 @@
         <v>1425</v>
       </c>
       <c r="D265">
-        <v>-.19617507886435331</v>
+        <v>.1111111586218392</v>
       </c>
       <c r="E265">
-        <v>-.009477674810446503</v>
+        <v>.07199315598852778</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,10 +4889,10 @@
         <v>1409</v>
       </c>
       <c r="D266">
-        <v>-.16893004115226337</v>
+        <v>.11235770292468966</v>
       </c>
       <c r="E266">
-        <v>.02</v>
+        <v>.07608936170212766</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,10 +4906,10 @@
         <v>1407</v>
       </c>
       <c r="D267">
-        <v>-.16013071895424835</v>
+        <v>.11814900252039813</v>
       </c>
       <c r="E267">
-        <v>.013203463203463203</v>
+        <v>.08180618803995428</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,10 +4923,10 @@
         <v>1469</v>
       </c>
       <c r="D268">
-        <v>-.14005546751188588</v>
+        <v>.10691972750972596</v>
       </c>
       <c r="E268">
-        <v>.0197536108751062</v>
+        <v>.07198660029494798</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -4940,10 +4940,10 @@
         <v>1486</v>
       </c>
       <c r="D269">
-        <v>-.08576642335766424</v>
+        <v>.11769480999994081</v>
       </c>
       <c r="E269">
-        <v>.046110139860139863</v>
+        <v>.07976852283424618</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,10 +4957,10 @@
         <v>1511</v>
       </c>
       <c r="D270">
-        <v>-.10304878048780487</v>
+        <v>.1127041195716835</v>
       </c>
       <c r="E270">
-        <v>-.01902417188898836</v>
+        <v>.08149797345332048</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,10 +4974,10 @@
         <v>1506</v>
       </c>
       <c r="D271">
-        <v>-.10546875</v>
+        <v>.1149505615234375</v>
       </c>
       <c r="E271">
-        <v>-.005406574394463667</v>
+        <v>.08155597656577387</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -4991,10 +4991,10 @@
         <v>1495</v>
       </c>
       <c r="D272">
-        <v>-.08149509803921569</v>
+        <v>.1110566699106113</v>
       </c>
       <c r="E272">
-        <v>.02491408934707904</v>
+        <v>.07798753557468617</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5008,10 +5008,10 @@
         <v>1482</v>
       </c>
       <c r="D273">
-        <v>-.07148530579825259</v>
+        <v>.09993353651958481</v>
       </c>
       <c r="E273">
-        <v>.009138381201044387</v>
+        <v>.06791039773489037</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,10 +5025,10 @@
         <v>1476</v>
       </c>
       <c r="D274">
-        <v>-.049765807962529274</v>
+        <v>.11037465241404273</v>
       </c>
       <c r="E274">
-        <v>.013678451178451179</v>
+        <v>.07499177202723079</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,10 +5042,10 @@
         <v>1466</v>
       </c>
       <c r="D275">
-        <v>-.07564003103180761</v>
+        <v>.11889068811047225</v>
       </c>
       <c r="E275">
-        <v>-.02768595041322314</v>
+        <v>.08022522368690661</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,10 +5059,10 @@
         <v>1459</v>
       </c>
       <c r="D276">
-        <v>-.0797872340425532</v>
+        <v>.10830257338858515</v>
       </c>
       <c r="E276">
-        <v>-.007057313943541489</v>
+        <v>.0794519051838886</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5076,10 +5076,10 @@
         <v>1444</v>
       </c>
       <c r="D277">
-        <v>-.09076558800315707</v>
+        <v>.10807968222544352</v>
       </c>
       <c r="E277">
-        <v>-.0054489973844812556</v>
+        <v>.07707362141791368</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>1433</v>
       </c>
       <c r="D278">
-        <v>-.06194331983805668</v>
+        <v>.10729662836630657</v>
       </c>
       <c r="E278">
-        <v>.02145922746781116</v>
+        <v>.07722190498996113</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5110,10 +5110,10 @@
         <v>1412</v>
       </c>
       <c r="D279">
-        <v>-.03262578616352201</v>
+        <v>.1093915329199795</v>
       </c>
       <c r="E279">
-        <v>.027637130801687764</v>
+        <v>.08188386832594491</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,10 +5127,10 @@
         <v>1405</v>
       </c>
       <c r="D280">
-        <v>-.02924901185770751</v>
+        <v>.10744489056226471</v>
       </c>
       <c r="E280">
-        <v>.006795716639209226</v>
+        <v>.08021535036056551</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,10 +5144,10 @@
         <v>1391</v>
       </c>
       <c r="D281">
-        <v>-.03597413096200485</v>
+        <v>.11117554662262796</v>
       </c>
       <c r="E281">
-        <v>-.0014843087362171332</v>
+        <v>.0736301123492041</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,10 +5161,10 @@
         <v>1383</v>
       </c>
       <c r="D282">
-        <v>-.04456255110384301</v>
+        <v>.11064704903094076</v>
       </c>
       <c r="E282">
-        <v>-.01186367558239862</v>
+        <v>.0772427734777757</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,10 +5178,10 @@
         <v>1379</v>
       </c>
       <c r="D283">
-        <v>-.04861111111111111</v>
+        <v>.11038205791575889</v>
       </c>
       <c r="E283">
-        <v>.0010822510822510823</v>
+        <v>.07440359063735687</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,10 +5195,10 @@
         <v>1366</v>
       </c>
       <c r="D284">
-        <v>-.05569620253164557</v>
+        <v>.10681354483789991</v>
       </c>
       <c r="E284">
-        <v>-.007104795737122558</v>
+        <v>.07521595171767587</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5212,10 +5212,10 @@
         <v>1359</v>
       </c>
       <c r="D285">
-        <v>-.08976510067114093</v>
+        <v>.10289021327868116</v>
       </c>
       <c r="E285">
-        <v>-.03564981949458484</v>
+        <v>.07657205065881219</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5229,10 +5229,10 @@
         <v>1350</v>
       </c>
       <c r="D286">
-        <v>-.0946223316912972</v>
+        <v>.11147970137321672</v>
       </c>
       <c r="E286">
-        <v>-.00530035335689046</v>
+        <v>.07958763063591755</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -5246,10 +5246,10 @@
         <v>1339</v>
       </c>
       <c r="D287">
-        <v>-.12900575184880855</v>
+        <v>.1100009013637938</v>
       </c>
       <c r="E287">
-        <v>-.03617850953206239</v>
+        <v>.07684319517074212</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -5263,10 +5263,10 @@
         <v>1332</v>
       </c>
       <c r="D288">
-        <v>-.16220115416323166</v>
+        <v>.11924931815200673</v>
       </c>
       <c r="E288">
-        <v>-.031032986111111112</v>
+        <v>.0762396447452498</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,10 +5280,10 @@
         <v>1327</v>
       </c>
       <c r="D289">
-        <v>-.15995850622406638</v>
+        <v>.12093817255212548</v>
       </c>
       <c r="E289">
-        <v>.00389948006932409</v>
+        <v>.0780827143324853</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,10 +5297,10 @@
         <v>1316</v>
       </c>
       <c r="D290">
-        <v>-.1441326530612245</v>
+        <v>.11134737696098847</v>
       </c>
       <c r="E290">
-        <v>.015030946065428824</v>
+        <v>.08078644908654971</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5314,10 +5314,10 @@
         <v>1310</v>
       </c>
       <c r="D291">
-        <v>-.1419031719532554</v>
+        <v>.10653293887140783</v>
       </c>
       <c r="E291">
-        <v>.003781138790035587</v>
+        <v>.09267920832752878</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,10 +5331,10 @@
         <v>1307</v>
       </c>
       <c r="D292">
-        <v>-.13471283783783783</v>
+        <v>.1050576878081629</v>
       </c>
       <c r="E292">
-        <v>-.0004428697962798937</v>
+        <v>.07595197392834532</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,10 +5348,10 @@
         <v>1297</v>
       </c>
       <c r="D293">
-        <v>-.12958333333333333</v>
+        <v>.11445815972222223</v>
       </c>
       <c r="E293">
-        <v>.006828193832599119</v>
+        <v>.08326835374255273</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,10 +5365,10 @@
         <v>1293</v>
       </c>
       <c r="D294">
-        <v>-.12774846086191732</v>
+        <v>.10180917859261784</v>
       </c>
       <c r="E294">
-        <v>.0031446540880503146</v>
+        <v>.08197573558912113</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,10 +5382,10 @@
         <v>1348</v>
       </c>
       <c r="D295">
-        <v>-.14012605042016807</v>
+        <v>.10730796730456889</v>
       </c>
       <c r="E295">
-        <v>-.005130597014925373</v>
+        <v>.07448393816830029</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,10 +5399,10 @@
         <v>1365</v>
       </c>
       <c r="D296">
-        <v>-.13905709342560554</v>
+        <v>.10690663687874906</v>
       </c>
       <c r="E296">
-        <v>-.0006868131868131869</v>
+        <v>.0816730630861812</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -5416,10 +5416,10 @@
         <v>1369</v>
       </c>
       <c r="D297">
-        <v>-.13043478260869565</v>
+        <v>.10766707439119315</v>
       </c>
       <c r="E297">
-        <v>.010242085661080074</v>
+        <v>.07612880545412301</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -5433,10 +5433,10 @@
         <v>1362</v>
       </c>
       <c r="D298">
-        <v>-.15066225165562913</v>
+        <v>.11906413095916846</v>
       </c>
       <c r="E298">
-        <v>-.019594594594594596</v>
+        <v>.08390659240321403</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -5450,10 +5450,10 @@
         <v>1357</v>
       </c>
       <c r="D299">
-        <v>-.18966227347611203</v>
+        <v>.12038118742349688</v>
       </c>
       <c r="E299">
-        <v>-.03996524761077324</v>
+        <v>.08582675813197604</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,10 +5467,10 @@
         <v>1352</v>
       </c>
       <c r="D300">
-        <v>-.21161825726141079</v>
+        <v>.11891065925173465</v>
       </c>
       <c r="E300">
-        <v>-.020559930008748905</v>
+        <v>.07470852287383588</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -5484,10 +5484,10 @@
         <v>1354</v>
       </c>
       <c r="D301">
-        <v>-.19165282392026578</v>
+        <v>.11593738445215837</v>
       </c>
       <c r="E301">
-        <v>.019690265486725665</v>
+        <v>.07322955008223041</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -5501,10 +5501,10 @@
         <v>1351</v>
       </c>
       <c r="D302">
-        <v>-.17459983150800337</v>
+        <v>.11183798224091517</v>
       </c>
       <c r="E302">
-        <v>.020927092709270928</v>
+        <v>.07792614319937845</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -5518,10 +5518,10 @@
         <v>1358</v>
       </c>
       <c r="D303">
-        <v>-.15569105691056911</v>
+        <v>.11763021349725693</v>
       </c>
       <c r="E303">
-        <v>.019760213143872114</v>
+        <v>.08092614143654427</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,10 +5535,10 @@
         <v>1363</v>
       </c>
       <c r="D304">
-        <v>-.17169887278582932</v>
+        <v>.11328318468471972</v>
       </c>
       <c r="E304">
-        <v>-.019296740994854202</v>
+        <v>.08088835619864132</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -5552,10 +5552,10 @@
         <v>1360</v>
       </c>
       <c r="D305">
-        <v>-.17160844841592202</v>
+        <v>.11418376545258853</v>
       </c>
       <c r="E305">
-        <v>-.00571549534292972</v>
+        <v>.08035471668622796</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,10 +5569,10 @@
         <v>1354</v>
       </c>
       <c r="D306">
-        <v>-.15088013411567477</v>
+        <v>.11135085989872467</v>
       </c>
       <c r="E306">
-        <v>.024629468177855274</v>
+        <v>.08652285747513129</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5586,10 +5586,10 @@
         <v>1339</v>
       </c>
       <c r="D307">
-        <v>-.14315352697095435</v>
+        <v>.11239088514316213</v>
       </c>
       <c r="E307">
-        <v>.007508833922261484</v>
+        <v>.07315474815517736</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,10 +5603,10 @@
         <v>1338</v>
       </c>
       <c r="D308">
-        <v>-.14567099567099567</v>
+        <v>.11097693071719045</v>
       </c>
       <c r="E308">
-        <v>.004087193460490463</v>
+        <v>.07491517495860836</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -5620,10 +5620,10 @@
         <v>1331</v>
       </c>
       <c r="D309">
-        <v>-.10382631126397249</v>
+        <v>.10803995951408024</v>
       </c>
       <c r="E309">
-        <v>.03949814126394052</v>
+        <v>.06651610501513247</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -5637,10 +5637,10 @@
         <v>1330</v>
       </c>
       <c r="D310">
-        <v>-.10786802030456853</v>
+        <v>.1113551839349979</v>
       </c>
       <c r="E310">
-        <v>-.0073059360730593605</v>
+        <v>.0760881758095119</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -5654,10 +5654,10 @@
         <v>1323</v>
       </c>
       <c r="D311">
-        <v>-.13516949152542374</v>
+        <v>.11478005601838552</v>
       </c>
       <c r="E311">
-        <v>-.027326106594399276</v>
+        <v>.07101254315765079</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,10 +5671,10 @@
         <v>1316</v>
       </c>
       <c r="D312">
-        <v>-.12552921253175275</v>
+        <v>.10410905524315636</v>
       </c>
       <c r="E312">
-        <v>.0033783783783783786</v>
+        <v>.0696394874604334</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -5688,10 +5688,10 @@
         <v>1313</v>
       </c>
       <c r="D313">
-        <v>-.14</v>
+        <v>.1020304347826087</v>
       </c>
       <c r="E313">
-        <v>-.014065335753176044</v>
+        <v>.06661251115773663</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -5705,10 +5705,10 @@
         <v>1306</v>
       </c>
       <c r="D314">
-        <v>-.09728308501314636</v>
+        <v>.10874371390319085</v>
       </c>
       <c r="E314">
-        <v>.040566037735849055</v>
+        <v>.07559496262014953</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -5722,10 +5722,10 @@
         <v>1297</v>
       </c>
       <c r="D315">
-        <v>-.07314974182444062</v>
+        <v>.10889180029683523</v>
       </c>
       <c r="E315">
-        <v>.021475256769374416</v>
+        <v>.08030445293585844</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -5739,10 +5739,10 @@
         <v>1292</v>
       </c>
       <c r="D316">
-        <v>-.08260869565217391</v>
+        <v>.10763232514177694</v>
       </c>
       <c r="E316">
-        <v>-.010809567617295308</v>
+        <v>.06468306125160697</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>1286</v>
       </c>
       <c r="D317">
-        <v>-.09944158075601374</v>
+        <v>.10807743730884142</v>
       </c>
       <c r="E317">
-        <v>-.014935661764705883</v>
+        <v>.06463216497823854</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -5773,10 +5773,10 @@
         <v>1276</v>
       </c>
       <c r="D318">
-        <v>-.091674047829938</v>
+        <v>.10253475292258761</v>
       </c>
       <c r="E318">
-        <v>.008820798514391829</v>
+        <v>.07269378125730108</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -5790,10 +5790,10 @@
         <v>1276</v>
       </c>
       <c r="D319">
-        <v>-.11172566371681415</v>
+        <v>.10582489819093116</v>
       </c>
       <c r="E319">
-        <v>-.022535211267605635</v>
+        <v>.07026681214044832</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -5807,10 +5807,10 @@
         <v>1275</v>
       </c>
       <c r="D320">
-        <v>-.10507246376811594</v>
+        <v>.09323966866204579</v>
       </c>
       <c r="E320">
-        <v>.0009633911368015414</v>
+        <v>.06502797361162158</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -5824,10 +5824,10 @@
         <v>1274</v>
       </c>
       <c r="D321">
-        <v>-.09426605504587156</v>
+        <v>.09656115857251071</v>
       </c>
       <c r="E321">
-        <v>.014039408866995074</v>
+        <v>.06846053046664567</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -5841,10 +5841,10 @@
         <v>1269</v>
       </c>
       <c r="D322">
-        <v>-.12279929577464789</v>
+        <v>.10001716394316602</v>
       </c>
       <c r="E322">
-        <v>-.02750965250965251</v>
+        <v>.069827195852775</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -5858,10 +5858,10 @@
         <v>1268</v>
       </c>
       <c r="D323">
-        <v>-.12948028673835124</v>
+        <v>.11069901305224752</v>
       </c>
       <c r="E323">
-        <v>-.014386792452830189</v>
+        <v>.07296519001423994</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,10 +5875,10 @@
         <v>1257</v>
       </c>
       <c r="D324">
-        <v>-.11934900542495479</v>
+        <v>.10171422358400178</v>
       </c>
       <c r="E324">
-        <v>.011233269598470364</v>
+        <v>.06769169128319118</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -5892,10 +5892,10 @@
         <v>1250</v>
       </c>
       <c r="D325">
-        <v>-.12219227313566937</v>
+        <v>.10344281298611767</v>
       </c>
       <c r="E325">
-        <v>-.009161041465766635</v>
+        <v>.0656103858303522</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,10 +5909,10 @@
         <v>1240</v>
       </c>
       <c r="D326">
-        <v>-.10235849056603774</v>
+        <v>.0981312299750801</v>
       </c>
       <c r="E326">
-        <v>.024209486166007904</v>
+        <v>.07105421698511147</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -5926,10 +5926,10 @@
         <v>1228</v>
       </c>
       <c r="D327">
-        <v>-.08810172570390554</v>
+        <v>.09873218220410641</v>
       </c>
       <c r="E327">
-        <v>.0137524557956778</v>
+        <v>.06709967153129716</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -5943,10 +5943,10 @@
         <v>1222</v>
       </c>
       <c r="D328">
-        <v>-.0842516069788797</v>
+        <v>.09385437562873075</v>
       </c>
       <c r="E328">
-        <v>.005528846153846154</v>
+        <v>.0634910664755917</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -5960,10 +5960,10 @@
         <v>1212</v>
       </c>
       <c r="D329">
-        <v>-.06974552309142319</v>
+        <v>.1050554489078555</v>
       </c>
       <c r="E329">
-        <v>.015593561368209255</v>
+        <v>.06464617685995248</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -5977,10 +5977,10 @@
         <v>1205</v>
       </c>
       <c r="D330">
-        <v>-.06883720930232558</v>
+        <v>.09363353163872364</v>
       </c>
       <c r="E330">
-        <v>-.003468780971258672</v>
+        <v>.07159351760812745</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -5994,10 +5994,10 @@
         <v>1200</v>
       </c>
       <c r="D331">
-        <v>-.06945722171113156</v>
+        <v>.09970651311942003</v>
       </c>
       <c r="E331">
-        <v>-.00024366471734892786</v>
+        <v>.06317001860021507</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -6011,10 +6011,10 @@
         <v>1200</v>
       </c>
       <c r="D332">
-        <v>-.05452380952380952</v>
+        <v>.09946763038548753</v>
       </c>
       <c r="E332">
-        <v>.013805220883534136</v>
+        <v>.06312517892856567</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -6028,10 +6028,10 @@
         <v>1192</v>
       </c>
       <c r="D333">
-        <v>-.05552884615384615</v>
+        <v>.08784202801405325</v>
       </c>
       <c r="E333">
-        <v>-.004136504653567736</v>
+        <v>.06241825644403902</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -6045,10 +6045,10 @@
         <v>1187</v>
       </c>
       <c r="D334">
-        <v>-.06949715370018976</v>
+        <v>.09401976612093084</v>
       </c>
       <c r="E334">
-        <v>-.015832482124616958</v>
+        <v>.061164041396392685</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6062,10 +6062,10 @@
         <v>1183</v>
       </c>
       <c r="D335">
-        <v>-.07514312977099237</v>
+        <v>.10164120088791447</v>
       </c>
       <c r="E335">
-        <v>-.008274824473420261</v>
+        <v>.06155389438123799</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,10 +6079,10 @@
         <v>1179</v>
       </c>
       <c r="D336">
-        <v>-.07352941176470588</v>
+        <v>.08887710681995759</v>
       </c>
       <c r="E336">
-        <v>-.00175</v>
+        <v>.0553094375</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -6096,10 +6096,10 @@
         <v>1174</v>
       </c>
       <c r="D337">
-        <v>-.07483317445185891</v>
+        <v>.09056300839421265</v>
       </c>
       <c r="E337">
-        <v>-.006287726358148894</v>
+        <v>.06453541419543418</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6113,10 +6113,10 @@
         <v>1168</v>
       </c>
       <c r="D338">
-        <v>-.0627431906614786</v>
+        <v>.09175881731744615</v>
       </c>
       <c r="E338">
-        <v>.019211065573770492</v>
+        <v>.06885480791033997</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6130,10 +6130,10 @@
         <v>1164</v>
       </c>
       <c r="D339">
-        <v>-.08075435203094777</v>
+        <v>.08148647157196892</v>
       </c>
       <c r="E339">
-        <v>-.011597938144329897</v>
+        <v>.06410517855244978</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,10 +6147,10 @@
         <v>1157</v>
       </c>
       <c r="D340">
-        <v>-.0689149560117302</v>
+        <v>.08224975132079473</v>
       </c>
       <c r="E340">
-        <v>.006390593047034765</v>
+        <v>.05664372064770556</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6164,10 +6164,10 @@
         <v>1153</v>
       </c>
       <c r="D341">
-        <v>-.06780487804878049</v>
+        <v>.09174396192742415</v>
       </c>
       <c r="E341">
-        <v>-.0015544041450777201</v>
+        <v>.05828773926816827</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -6181,10 +6181,10 @@
         <v>1145</v>
       </c>
       <c r="D342">
-        <v>-.06306532663316583</v>
+        <v>.0920654781444913</v>
       </c>
       <c r="E342">
-        <v>.0002620545073375262</v>
+        <v>.059682845373556774</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6198,10 +6198,10 @@
         <v>1142</v>
       </c>
       <c r="D343">
-        <v>-.05417495029821073</v>
+        <v>.0937350548794707</v>
       </c>
       <c r="E343">
-        <v>.004268943436499467</v>
+        <v>.06601699490528709</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,10 +6215,10 @@
         <v>1136</v>
       </c>
       <c r="D344">
-        <v>-.046954314720812185</v>
+        <v>.09481305882656085</v>
       </c>
       <c r="E344">
-        <v>.007250268528464017</v>
+        <v>.07453121448703853</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -6232,10 +6232,10 @@
         <v>1130</v>
       </c>
       <c r="D345">
-        <v>-.048597194388777555</v>
+        <v>.07829963534282994</v>
       </c>
       <c r="E345">
-        <v>-.0013572204125950054</v>
+        <v>.06263387999401113</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,10 +6249,10 @@
         <v>1124</v>
       </c>
       <c r="D346">
-        <v>-.043402777777777776</v>
+        <v>.09502840126212522</v>
       </c>
       <c r="E346">
-        <v>.0005330490405117271</v>
+        <v>.06609779688217457</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -6266,10 +6266,10 @@
         <v>1121</v>
       </c>
       <c r="D347">
-        <v>-.05984455958549223</v>
+        <v>.09855593438750032</v>
       </c>
       <c r="E347">
-        <v>-.01721311475409836</v>
+        <v>.06438950103018902</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -6283,10 +6283,10 @@
         <v>1116</v>
       </c>
       <c r="D348">
-        <v>-.06066734074823053</v>
+        <v>.09288165779080503</v>
       </c>
       <c r="E348">
-        <v>-.0077348066298342545</v>
+        <v>.06651475840175819</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,10 +6300,10 @@
         <v>1115</v>
       </c>
       <c r="D349">
-        <v>-.04944500504540868</v>
+        <v>.08294873335295154</v>
       </c>
       <c r="E349">
-        <v>.007454739084132056</v>
+        <v>.06850140237104481</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,10 +6317,10 @@
         <v>1111</v>
       </c>
       <c r="D350">
-        <v>-.02434077079107505</v>
+        <v>.08586797312476084</v>
       </c>
       <c r="E350">
-        <v>.023243243243243242</v>
+        <v>.05337867056245435</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -6334,10 +6334,10 @@
         <v>1108</v>
       </c>
       <c r="D351">
-        <v>-.02131979695431472</v>
+        <v>.08672820737457806</v>
       </c>
       <c r="E351">
-        <v>.003243243243243243</v>
+        <v>.06188137326515705</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,10 +6351,10 @@
         <v>1098</v>
       </c>
       <c r="D352">
-        <v>-.014826175869120654</v>
+        <v>.08873723972382183</v>
       </c>
       <c r="E352">
-        <v>.0010741138560687433</v>
+        <v>.0624317141634199</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,10 +6368,10 @@
         <v>1096</v>
       </c>
       <c r="D353">
-        <v>-.00858480749219563</v>
+        <v>.09663545820831361</v>
       </c>
       <c r="E353">
-        <v>.003812636165577342</v>
+        <v>.07419570345688506</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -6385,10 +6385,10 @@
         <v>1091</v>
       </c>
       <c r="D354">
-        <v>-.024364406779661018</v>
+        <v>.08031209602125826</v>
       </c>
       <c r="E354">
-        <v>-.012065095398428732</v>
+        <v>.06487968599827934</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -6402,10 +6402,10 @@
         <v>1087</v>
       </c>
       <c r="D355">
-        <v>-.02335456475583864</v>
+        <v>.08464564710761312</v>
       </c>
       <c r="E355">
-        <v>.0028702640642939152</v>
+        <v>.05538785802507378</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>1083</v>
       </c>
       <c r="D356">
-        <v>-.009497206703910615</v>
+        <v>.08789862988046565</v>
       </c>
       <c r="E356">
-        <v>.006626506024096385</v>
+        <v>.06411271592393672</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -6436,10 +6436,10 @@
         <v>1075</v>
       </c>
       <c r="D357">
-        <v>-.013286334056399132</v>
+        <v>.07594874447701638</v>
       </c>
       <c r="E357">
-        <v>-.0009068923821039903</v>
+        <v>.04980268419675142</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,10 +6453,10 @@
         <v>1072</v>
       </c>
       <c r="D358">
-        <v>-.013061650992685475</v>
+        <v>.08773430445411852</v>
       </c>
       <c r="E358">
-        <v>-.0017201834862385322</v>
+        <v>.055759655647672754</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,10 +6470,10 @@
         <v>1065</v>
       </c>
       <c r="D359">
-        <v>-.022727272727272728</v>
+        <v>.08511658795749706</v>
       </c>
       <c r="E359">
-        <v>-.012557077625570776</v>
+        <v>.055207616605158355</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,10 +6487,10 @@
         <v>1060</v>
       </c>
       <c r="D360">
-        <v>-.02638888888888889</v>
+        <v>.07631751543209876</v>
       </c>
       <c r="E360">
-        <v>-.00388755980861244</v>
+        <v>.05373787730935647</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,10 +6504,10 @@
         <v>1054</v>
       </c>
       <c r="D361">
-        <v>-.033406352683461114</v>
+        <v>.07842947014584277</v>
       </c>
       <c r="E361">
-        <v>-.015196662693682956</v>
+        <v>.04871125452998277</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -6521,10 +6521,10 @@
         <v>1049</v>
       </c>
       <c r="D362">
-        <v>-.0025167785234899327</v>
+        <v>.08074031012116573</v>
       </c>
       <c r="E362">
-        <v>.03267386091127098</v>
+        <v>.050266351666867944</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -6538,10 +6538,10 @@
         <v>1045</v>
       </c>
       <c r="D363">
-        <v>.008090614886731391</v>
+        <v>.0924372388223835</v>
       </c>
       <c r="E363">
-        <v>.013497652582159625</v>
+        <v>.06363823590998259</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -6555,10 +6555,10 @@
         <v>1039</v>
       </c>
       <c r="D364">
-        <v>-.005876068376068376</v>
+        <v>.08329880515377311</v>
       </c>
       <c r="E364">
-        <v>-.018306636155606407</v>
+        <v>.059876537553215446</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -6572,10 +6572,10 @@
         <v>1038</v>
       </c>
       <c r="D365">
-        <v>-.006913716814159292</v>
+        <v>.09086757662600829</v>
       </c>
       <c r="E365">
-        <v>-.0037528868360277136</v>
+        <v>.061692035932774725</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -6589,10 +6589,10 @@
         <v>1035</v>
       </c>
       <c r="D366">
-        <v>-.003676470588235294</v>
+        <v>.08560582745541655</v>
       </c>
       <c r="E366">
-        <v>-.0017964071856287425</v>
+        <v>.05852970705295995</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -6606,10 +6606,10 @@
         <v>1034</v>
       </c>
       <c r="D367">
-        <v>-.009933774834437087</v>
+        <v>.08171699340672191</v>
       </c>
       <c r="E367">
-        <v>-.005071599045346062</v>
+        <v>.058372250243505105</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,10 +6623,10 @@
         <v>1030</v>
       </c>
       <c r="D368">
-        <v>-.018208092485549134</v>
+        <v>.0816771358882689</v>
       </c>
       <c r="E368">
-        <v>-.005835380835380835</v>
+        <v>.05547884759340534</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -6640,10 +6640,10 @@
         <v>1028</v>
       </c>
       <c r="D369">
-        <v>-.003401360544217687</v>
+        <v>.08006212689157295</v>
       </c>
       <c r="E369">
-        <v>.009913258983890954</v>
+        <v>.05365017834960207</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,10 +6657,10 @@
         <v>1027</v>
       </c>
       <c r="D370">
-        <v>-.024608501118568233</v>
+        <v>.09475236350714933</v>
       </c>
       <c r="E370">
-        <v>-.015795868772782502</v>
+        <v>.056099214709542926</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -6674,10 +6674,10 @@
         <v>1021</v>
       </c>
       <c r="D371">
-        <v>-.04728950403690888</v>
+        <v>.09681214571451757</v>
       </c>
       <c r="E371">
-        <v>-.020036991368680642</v>
+        <v>.0553167680521072</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -6691,10 +6691,10 @@
         <v>1016</v>
       </c>
       <c r="D372">
-        <v>-.046424452133794696</v>
+        <v>.09090993748744494</v>
       </c>
       <c r="E372">
-        <v>-.003121098626716604</v>
+        <v>.0536731551228879</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -6708,10 +6708,10 @@
         <v>1014</v>
       </c>
       <c r="D373">
-        <v>-.046674445740956826</v>
+        <v>.08168964080555627</v>
       </c>
       <c r="E373">
-        <v>-.0028373266078184113</v>
+        <v>.060442769249851716</v>
       </c>
     </row>
   </sheetData>
